--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H2">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N2">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O2">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P2">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q2">
-        <v>1799.387516491041</v>
+        <v>4417.22895757157</v>
       </c>
       <c r="R2">
-        <v>16194.48764841936</v>
+        <v>39755.06061814413</v>
       </c>
       <c r="S2">
-        <v>0.2398421586151361</v>
+        <v>0.3692686363029543</v>
       </c>
       <c r="T2">
-        <v>0.2398421586151361</v>
+        <v>0.3692686363029543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H3">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.03682</v>
       </c>
       <c r="O3">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P3">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q3">
-        <v>7.551696179559999</v>
+        <v>16.53702463699334</v>
       </c>
       <c r="R3">
-        <v>67.96526561604</v>
+        <v>148.83322173294</v>
       </c>
       <c r="S3">
-        <v>0.001006573123527816</v>
+        <v>0.001382451440680601</v>
       </c>
       <c r="T3">
-        <v>0.001006573123527816</v>
+        <v>0.001382451440680601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H4">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N4">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O4">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P4">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q4">
-        <v>11.272086118176</v>
+        <v>15.58492096306489</v>
       </c>
       <c r="R4">
-        <v>101.448775063584</v>
+        <v>140.264288667584</v>
       </c>
       <c r="S4">
-        <v>0.001502467612952622</v>
+        <v>0.001302858096376375</v>
       </c>
       <c r="T4">
-        <v>0.001502467612952622</v>
+        <v>0.001302858096376375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H5">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N5">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O5">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P5">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q5">
-        <v>19.61168994716533</v>
+        <v>37.03598691176744</v>
       </c>
       <c r="R5">
-        <v>176.505209524488</v>
+        <v>333.323882205907</v>
       </c>
       <c r="S5">
-        <v>0.002614061733734561</v>
+        <v>0.003096110369737573</v>
       </c>
       <c r="T5">
-        <v>0.002614061733734562</v>
+        <v>0.003096110369737573</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N6">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O6">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P6">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q6">
-        <v>2947.657240284981</v>
+        <v>3304.374975293525</v>
       </c>
       <c r="R6">
-        <v>26528.91516256483</v>
+        <v>29739.37477764173</v>
       </c>
       <c r="S6">
-        <v>0.3928961765535315</v>
+        <v>0.2762369921687443</v>
       </c>
       <c r="T6">
-        <v>0.3928961765535315</v>
+        <v>0.2762369921687443</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.03682</v>
       </c>
       <c r="O7">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P7">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q7">
         <v>12.37077156316</v>
@@ -883,10 +883,10 @@
         <v>111.33694406844</v>
       </c>
       <c r="S7">
-        <v>0.001648912492862573</v>
+        <v>0.001034163723234952</v>
       </c>
       <c r="T7">
-        <v>0.001648912492862573</v>
+        <v>0.001034163723234952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N8">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O8">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P8">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q8">
-        <v>18.465308864736</v>
+        <v>11.65853600004267</v>
       </c>
       <c r="R8">
-        <v>166.187779782624</v>
+        <v>104.926824000384</v>
       </c>
       <c r="S8">
-        <v>0.002461259454689309</v>
+        <v>0.0009746227174041388</v>
       </c>
       <c r="T8">
-        <v>0.002461259454689309</v>
+        <v>0.0009746227174041388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N9">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O9">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P9">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q9">
-        <v>32.12678721908533</v>
+        <v>27.70533053913133</v>
       </c>
       <c r="R9">
-        <v>289.141084971768</v>
+        <v>249.347974852182</v>
       </c>
       <c r="S9">
-        <v>0.004282211544415233</v>
+        <v>0.002316092220886845</v>
       </c>
       <c r="T9">
-        <v>0.004282211544415234</v>
+        <v>0.002316092220886845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H10">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I10">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J10">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N10">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O10">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P10">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q10">
-        <v>2579.184595286629</v>
+        <v>4047.334513155215</v>
       </c>
       <c r="R10">
-        <v>23212.66135757966</v>
+        <v>36426.01061839693</v>
       </c>
       <c r="S10">
-        <v>0.3437820898117425</v>
+        <v>0.3383464408773499</v>
       </c>
       <c r="T10">
-        <v>0.3437820898117425</v>
+        <v>0.3383464408773499</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H11">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I11">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J11">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.03682</v>
       </c>
       <c r="O11">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P11">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q11">
-        <v>10.82436010926</v>
+        <v>15.15223032382667</v>
       </c>
       <c r="R11">
-        <v>97.41924098334</v>
+        <v>136.37007291444</v>
       </c>
       <c r="S11">
-        <v>0.001442789766206214</v>
+        <v>0.001266686305457846</v>
       </c>
       <c r="T11">
-        <v>0.001442789766206214</v>
+        <v>0.001266686305457846</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H12">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I12">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J12">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N12">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O12">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P12">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q12">
-        <v>16.157048221296</v>
+        <v>14.27985488288711</v>
       </c>
       <c r="R12">
-        <v>145.413433991664</v>
+        <v>128.518693945984</v>
       </c>
       <c r="S12">
-        <v>0.002153589088914729</v>
+        <v>0.00119375803017165</v>
       </c>
       <c r="T12">
-        <v>0.002153589088914729</v>
+        <v>0.001193758030171649</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H13">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I13">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J13">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N13">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O13">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P13">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q13">
-        <v>28.110769990172</v>
+        <v>33.93462949205355</v>
       </c>
       <c r="R13">
-        <v>252.996929911548</v>
+        <v>305.411665428482</v>
       </c>
       <c r="S13">
-        <v>0.003746912598306896</v>
+        <v>0.002836845107269628</v>
       </c>
       <c r="T13">
-        <v>0.003746912598306897</v>
+        <v>0.002836845107269628</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H14">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N14">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O14">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P14">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q14">
-        <v>19.25101735224311</v>
+        <v>8.766648099740445</v>
       </c>
       <c r="R14">
-        <v>173.259156170188</v>
+        <v>78.89983289766401</v>
       </c>
       <c r="S14">
-        <v>0.002565987323455136</v>
+        <v>0.0007328685517172648</v>
       </c>
       <c r="T14">
-        <v>0.002565987323455136</v>
+        <v>0.0007328685517172648</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H15">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.03682</v>
       </c>
       <c r="O15">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P15">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q15">
-        <v>0.08079295474666666</v>
+        <v>0.03282018591333333</v>
       </c>
       <c r="R15">
-        <v>0.72713659272</v>
+        <v>0.29538167322</v>
       </c>
       <c r="S15">
-        <v>1.076897360337557E-05</v>
+        <v>2.743680577084885E-06</v>
       </c>
       <c r="T15">
-        <v>1.076897360337557E-05</v>
+        <v>2.743680577084885E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H16">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N16">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O16">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P16">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q16">
-        <v>0.120596104768</v>
+        <v>0.03093059451022223</v>
       </c>
       <c r="R16">
-        <v>1.085364942912</v>
+        <v>0.278375350592</v>
       </c>
       <c r="S16">
-        <v>1.607437520992618E-05</v>
+        <v>2.58571574272859E-06</v>
       </c>
       <c r="T16">
-        <v>1.607437520992618E-05</v>
+        <v>2.585715742728589E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H17">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N17">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O17">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P17">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q17">
-        <v>0.2098186077315555</v>
+        <v>0.07350342656011111</v>
       </c>
       <c r="R17">
-        <v>1.888367469584</v>
+        <v>0.661530839041</v>
       </c>
       <c r="S17">
-        <v>2.796693171134897E-05</v>
+        <v>6.14469169476072E-06</v>
       </c>
       <c r="T17">
-        <v>2.796693171134897E-05</v>
+        <v>6.144691694760719E-06</v>
       </c>
     </row>
   </sheetData>
